--- a/Empsal.xlsx
+++ b/Empsal.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25-11-1987</t>
+          <t>1987-11-25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13-05-1980</t>
+          <t>1980-05-13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13-05-1959</t>
+          <t>1959-05-13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20-04-1995</t>
+          <t>1995-04-20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18-07-1974</t>
+          <t>1974-07-18</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28-12-1985</t>
+          <t>1985-12-28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13-12-1990</t>
+          <t>1990-12-13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30-11-1985</t>
+          <t>1985-11-30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16-05-1986</t>
+          <t>1986-05-16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19-05-1980</t>
+          <t>1980-05-19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21-08-1983</t>
+          <t>1983-08-21</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28-06-1989</t>
+          <t>1989-06-28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17-10-1980</t>
+          <t>1980-10-17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21-02-1991</t>
+          <t>1991-02-21</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15-12-1988</t>
+          <t>1988-12-15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17-03-1979</t>
+          <t>1979-03-17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21-04-1992</t>
+          <t>1992-04-21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13-01-1990</t>
+          <t>1990-01-13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15-05-1996</t>
+          <t>1996-05-15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14-10-1984</t>
+          <t>1984-10-14</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21-10-1981</t>
+          <t>1981-10-21</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15-03-1987</t>
+          <t>1987-03-15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21-12-1981</t>
+          <t>1981-12-21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>27-12-1991</t>
+          <t>1991-12-27</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19-11-1986</t>
+          <t>1986-11-19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14-01-1983</t>
+          <t>1983-01-14</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
